--- a/teaching/traditional_assets/database/data/peru/peru_banks_regional.xlsx
+++ b/teaching/traditional_assets/database/data/peru/peru_banks_regional.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0808</v>
+        <v>-0.01514</v>
       </c>
       <c r="E2">
-        <v>0.127</v>
+        <v>-0.1422</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>362</v>
+        <v>149.03</v>
       </c>
       <c r="L2">
-        <v>0.3846971307120085</v>
+        <v>0.2104646236407287</v>
       </c>
       <c r="M2">
-        <v>137.9</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="N2">
-        <v>0.02533250055110588</v>
+        <v>0.01681058607179979</v>
       </c>
       <c r="O2">
-        <v>0.380939226519337</v>
+        <v>0.564315909548413</v>
       </c>
       <c r="P2">
-        <v>137.9</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="Q2">
-        <v>0.02533250055110588</v>
+        <v>0.01681058607179979</v>
       </c>
       <c r="R2">
-        <v>0.380939226519337</v>
+        <v>0.564315909548413</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,55 +639,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>415.5</v>
+        <v>2533.5</v>
       </c>
       <c r="V2">
-        <v>0.07632816518480418</v>
+        <v>0.5064164068121851</v>
       </c>
       <c r="W2">
-        <v>0.2381265622944349</v>
+        <v>0.05429876105795206</v>
       </c>
       <c r="X2">
-        <v>0.06205875367988008</v>
+        <v>0.1164721598537399</v>
       </c>
       <c r="Y2">
-        <v>0.1760678086145548</v>
+        <v>-0.06217339879578788</v>
       </c>
       <c r="Z2">
-        <v>0.22521121030084</v>
+        <v>0.1356833123513778</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05028819039279198</v>
+        <v>0.04396422323290067</v>
       </c>
       <c r="AC2">
-        <v>-0.05028819039279198</v>
+        <v>-0.04396422323290067</v>
       </c>
       <c r="AD2">
-        <v>3429.8</v>
+        <v>5453.6</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>3429.8</v>
+        <v>5453.6</v>
       </c>
       <c r="AG2">
-        <v>3014.3</v>
+        <v>2920.1</v>
       </c>
       <c r="AH2">
-        <v>0.3865260215926251</v>
+        <v>0.5215561761218009</v>
       </c>
       <c r="AI2">
-        <v>0.6668999980555719</v>
+        <v>0.7371722087050555</v>
       </c>
       <c r="AJ2">
-        <v>0.35638870168718</v>
+        <v>0.3685645407615898</v>
       </c>
       <c r="AK2">
-        <v>0.6376232178364429</v>
+        <v>0.60028779936273</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -704,117 +704,236 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Banco Pichincha S.A. (BVL:BPICHC1)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Banks (Regional)</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>0.00212</v>
+      </c>
+      <c r="E3">
+        <v>-0.186</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>6.83</v>
+      </c>
+      <c r="L3">
+        <v>0.05965065502183406</v>
+      </c>
+      <c r="M3">
+        <v>-0</v>
+      </c>
+      <c r="N3">
+        <v>-0</v>
+      </c>
+      <c r="O3">
+        <v>-0</v>
+      </c>
+      <c r="P3">
+        <v>-0</v>
+      </c>
+      <c r="Q3">
+        <v>-0</v>
+      </c>
+      <c r="R3">
+        <v>-0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>454.9</v>
+      </c>
+      <c r="V3">
+        <v>3.713469387755102</v>
+      </c>
+      <c r="W3">
+        <v>0.02559010865492694</v>
+      </c>
+      <c r="X3">
+        <v>0.1699205629205485</v>
+      </c>
+      <c r="Y3">
+        <v>-0.1443304542656215</v>
+      </c>
+      <c r="Z3">
+        <v>0.231126362535325</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0.04312754993837023</v>
+      </c>
+      <c r="AC3">
+        <v>-0.04312754993837023</v>
+      </c>
+      <c r="AD3">
+        <v>702.3</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>702.3</v>
+      </c>
+      <c r="AG3">
+        <v>247.4</v>
+      </c>
+      <c r="AH3">
+        <v>0.8514791464597478</v>
+      </c>
+      <c r="AI3">
+        <v>0.7295107510127765</v>
+      </c>
+      <c r="AJ3">
+        <v>0.6688294133549608</v>
+      </c>
+      <c r="AK3">
+        <v>0.487199684915321</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Banco Internacional del Perú S.A.A. - Interbank (BVL:INTERBC1)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Banks (Regional)</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.0808</v>
-      </c>
-      <c r="E3">
-        <v>0.127</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>362</v>
-      </c>
-      <c r="L3">
-        <v>0.3846971307120085</v>
-      </c>
-      <c r="M3">
-        <v>137.9</v>
-      </c>
-      <c r="N3">
-        <v>0.02533250055110588</v>
-      </c>
-      <c r="O3">
-        <v>0.380939226519337</v>
-      </c>
-      <c r="P3">
-        <v>137.9</v>
-      </c>
-      <c r="Q3">
-        <v>0.02533250055110588</v>
-      </c>
-      <c r="R3">
-        <v>0.380939226519337</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>415.5</v>
-      </c>
-      <c r="V3">
-        <v>0.07632816518480418</v>
-      </c>
-      <c r="W3">
-        <v>0.2381265622944349</v>
-      </c>
-      <c r="X3">
-        <v>0.06205875367988008</v>
-      </c>
-      <c r="Y3">
-        <v>0.1760678086145548</v>
-      </c>
-      <c r="Z3">
-        <v>0.22521121030084</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0.05028819039279198</v>
-      </c>
-      <c r="AC3">
-        <v>-0.05028819039279198</v>
-      </c>
-      <c r="AD3">
-        <v>3429.8</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>3429.8</v>
-      </c>
-      <c r="AG3">
-        <v>3014.3</v>
-      </c>
-      <c r="AH3">
-        <v>0.3865260215926251</v>
-      </c>
-      <c r="AI3">
-        <v>0.6668999980555719</v>
-      </c>
-      <c r="AJ3">
-        <v>0.35638870168718</v>
-      </c>
-      <c r="AK3">
-        <v>0.6376232178364429</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
+      <c r="D4">
+        <v>-0.03240000000000001</v>
+      </c>
+      <c r="E4">
+        <v>-0.0984</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>142.2</v>
+      </c>
+      <c r="L4">
+        <v>0.23955525606469</v>
+      </c>
+      <c r="M4">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="N4">
+        <v>0.01723254717947667</v>
+      </c>
+      <c r="O4">
+        <v>0.5914205344585092</v>
+      </c>
+      <c r="P4">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="Q4">
+        <v>0.01723254717947667</v>
+      </c>
+      <c r="R4">
+        <v>0.5914205344585092</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>2078.6</v>
+      </c>
+      <c r="V4">
+        <v>0.4259164395631416</v>
+      </c>
+      <c r="W4">
+        <v>0.08300741346097718</v>
+      </c>
+      <c r="X4">
+        <v>0.0630237567869314</v>
+      </c>
+      <c r="Y4">
+        <v>0.01998365667404578</v>
+      </c>
+      <c r="Z4">
+        <v>0.1256729834842496</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0.04480089652743111</v>
+      </c>
+      <c r="AC4">
+        <v>-0.04480089652743111</v>
+      </c>
+      <c r="AD4">
+        <v>4751.3</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>4751.3</v>
+      </c>
+      <c r="AG4">
+        <v>2672.7</v>
+      </c>
+      <c r="AH4">
+        <v>0.4933032933261348</v>
+      </c>
+      <c r="AI4">
+        <v>0.7383183379174242</v>
+      </c>
+      <c r="AJ4">
+        <v>0.3538593936184298</v>
+      </c>
+      <c r="AK4">
+        <v>0.6134689099547822</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
         <v>0</v>
       </c>
     </row>
